--- a/.idea/files/Evaluation/Round2/EvaluationDataset-CPA.xlsx
+++ b/.idea/files/Evaluation/Round2/EvaluationDataset-CPA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\Desktop\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\IdeaProjects\STI_Thesis\.idea\files\Evaluation\Round2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA1283-9BF9-43D5-A110-87B174C41B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8C505-2258-4217-AD90-A1556D700B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1665" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Cel Annoted</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>http://dbpedia.org/ontology/staff</t>
+  </si>
+  <si>
+    <t>F1_Score</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +561,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <f>(2*B8*B9)/(B8+B9)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
